--- a/TPE30.xlsx
+++ b/TPE30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanfanzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanfanzhang/Documents/GitHub/Sales_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF6A5BB-2192-8944-A0BA-01129EAF42F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BE7323-DF6B-7B4E-8C05-B67C5A3E6E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15720" xr2:uid="{AD1B3671-967C-DE44-852B-8BCA7ADB0544}"/>
   </bookViews>
@@ -46,26 +46,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>平均rating</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部Rating</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3以上产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格中位数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌广告</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1420,6 +1400,26 @@
   </si>
   <si>
     <t>卖家数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave. Rating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top Reviews Percent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating&gt;4.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave. Price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Med Price</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:AK348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1989,108 +1989,108 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="U1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="V1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AA1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AE1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AG1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AH1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AI1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AK1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
@@ -2126,19 +2126,19 @@
         <v>55586</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="U2" s="3">
         <v>0.23569999999999999</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="W2" s="3">
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Y2" s="3">
         <v>8.3400000000000002E-2</v>
@@ -2147,19 +2147,19 @@
         <v>0.40380000000000005</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AB2" s="3">
         <v>0.24260000000000001</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AD2" s="3">
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="3">
         <v>6.8900000000000003E-2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="e">
         <v>#N/A</v>
@@ -2209,19 +2209,19 @@
         <v>60571</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="U3" s="3">
         <v>0.19847599999999999</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="W3" s="3">
         <v>0.176343</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Y3" s="3">
         <v>0.14622599999999999</v>
@@ -2230,19 +2230,19 @@
         <v>0.52104499999999998</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AB3" s="3">
         <v>0.25684200000000001</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AD3" s="3">
         <v>0.2</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF3" s="3">
         <v>0.17263200000000001</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="e">
         <v>#N/A</v>
@@ -2292,19 +2292,19 @@
         <v>54849</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="U4" s="3">
         <v>0.25469999999999998</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W4" s="3">
         <v>0.13289999999999999</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Y4" s="3">
         <v>7.6300000000000007E-2</v>
@@ -2313,19 +2313,19 @@
         <v>0.46389999999999998</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AB4" s="3">
         <v>0.2495</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD4" s="3">
         <v>0.10929999999999999</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF4" s="3">
         <v>9.0700000000000003E-2</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="e">
         <v>#N/A</v>
@@ -2375,19 +2375,19 @@
         <v>69785</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="U5" s="3">
         <v>0.25928099999999998</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="W5" s="3">
         <v>0.133765</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Y5" s="3">
         <v>6.4230999999999996E-2</v>
@@ -2396,19 +2396,19 @@
         <v>0.45727699999999999</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AB5" s="3">
         <v>0.33595799999999998</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AD5" s="3">
         <v>0.146982</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF5" s="3">
         <v>5.5118E-2</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="e">
         <v>#N/A</v>
@@ -2458,19 +2458,19 @@
         <v>7362</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="U6" s="3">
         <v>0.19969999999999999</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W6" s="3">
         <v>0.1268</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Y6" s="3">
         <v>6.2600000000000003E-2</v>
@@ -2479,19 +2479,19 @@
         <v>0.3891</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AB6" s="3">
         <v>0.23780000000000001</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD6" s="3">
         <v>0.1439</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF6" s="3">
         <v>7.0699999999999999E-2</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="e">
         <v>#N/A</v>
@@ -2541,19 +2541,19 @@
         <v>27121</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="U7" s="3">
         <v>0.39550000000000002</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="W7" s="3">
         <v>0.1024</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Y7" s="3">
         <v>9.5000000000000001E-2</v>
@@ -2562,19 +2562,19 @@
         <v>0.59289999999999998</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AB7" s="3">
         <v>0.4375</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AD7" s="3">
         <v>0.10539999999999999</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF7" s="3">
         <v>0.11119999999999999</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="e">
         <v>#N/A</v>
@@ -2624,19 +2624,19 @@
         <v>21831</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="U8" s="3">
         <v>0.1888</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="W8" s="3">
         <v>0.1237</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Y8" s="3">
         <v>0.1135</v>
@@ -2645,19 +2645,19 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AB8" s="3">
         <v>0.1862</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AD8" s="3">
         <v>0.1108</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AF8" s="3">
         <v>0.1193</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="e">
         <v>#N/A</v>
@@ -2707,19 +2707,19 @@
         <v>61051</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="U9" s="3">
         <v>0.38519999999999999</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="W9" s="3">
         <v>0.11070000000000001</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Y9" s="3">
         <v>8.2299999999999998E-2</v>
@@ -2728,19 +2728,19 @@
         <v>0.57820000000000005</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AB9" s="3">
         <v>0.37069999999999997</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AD9" s="3">
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AF9" s="3">
         <v>0.11409999999999999</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="e">
         <v>#N/A</v>
@@ -2888,19 +2888,19 @@
         <v>382000</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="U11" s="3">
         <v>0.33589999999999998</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W11" s="3">
         <v>0.33589999999999998</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Y11" s="3">
         <v>0.1429</v>
@@ -2909,19 +2909,19 @@
         <v>0.81469999999999998</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AB11" s="3">
         <v>0.36670000000000003</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD11" s="3">
         <v>0.4</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AF11" s="3">
         <v>0.1167</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
@@ -2977,19 +2977,19 @@
         <v>950903</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="U12" s="3">
         <v>0.4627</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="W12" s="3">
         <v>0.11940000000000001</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Y12" s="3">
         <v>0.11940000000000001</v>
@@ -2998,19 +2998,19 @@
         <v>0.70150000000000001</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AB12" s="3">
         <v>0.5</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AD12" s="3">
         <v>0.125</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AF12" s="3">
         <v>0.25</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="e">
         <v>#N/A</v>
@@ -3066,19 +3066,19 @@
         <v>464309</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="U13" s="3">
         <v>0.62631599999999998</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="W13" s="3">
         <v>5.2632000000000005E-2</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Y13" s="3">
         <v>4.2104999999999997E-2</v>
@@ -3087,19 +3087,19 @@
         <v>0.72105299999999994</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AB13" s="3">
         <v>0.6842109999999999</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AD13" s="3">
         <v>0</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF13" s="3">
         <v>5.2632000000000005E-2</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -3158,19 +3158,19 @@
         <v>370478</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="U14" s="3">
         <v>0.21</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="W14" s="3">
         <v>0.2</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y14" s="3">
         <v>0.1</v>
@@ -3179,19 +3179,19 @@
         <v>0.51</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AB14" s="3">
         <v>0.22220000000000001</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD14" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AF14" s="3">
         <v>0.1852</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C15" s="3">
         <v>8</v>
@@ -3244,19 +3244,19 @@
         <v>508076</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="U15" s="3">
         <v>0.37209999999999999</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="W15" s="3">
         <v>0.21510000000000001</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Y15" s="3">
         <v>0.1105</v>
@@ -3265,19 +3265,19 @@
         <v>0.69769999999999999</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AB15" s="3">
         <v>0.3871</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AD15" s="3">
         <v>0.1613</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AF15" s="3">
         <v>0.2258</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C16" s="3">
         <v>6</v>
@@ -3330,19 +3330,19 @@
         <v>146250</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="U16" s="3">
         <v>0.2145</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="W16" s="3">
         <v>0.1173</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Y16" s="3">
         <v>9.9500000000000005E-2</v>
@@ -3351,19 +3351,19 @@
         <v>0.43130000000000002</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AB16" s="3">
         <v>0.2571</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AD16" s="3">
         <v>0.12379999999999999</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AF16" s="3">
         <v>0.1333</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="e">
         <v>#N/A</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="e">
         <v>#N/A</v>
@@ -3514,19 +3514,19 @@
         <v>163230</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="U18" s="3">
         <v>0.2203</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W18" s="3">
         <v>0.19439999999999999</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Y18" s="3">
         <v>0.19350000000000001</v>
@@ -3535,19 +3535,19 @@
         <v>0.60819999999999996</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AB18" s="3">
         <v>0.16370000000000001</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD18" s="3">
         <v>0.15790000000000001</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AF18" s="3">
         <v>0.1988</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C19" s="3">
         <v>6</v>
@@ -3612,19 +3612,19 @@
         <v>230209</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="U19" s="3">
         <v>0.2419</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="W19" s="3">
         <v>0.1714</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Y19" s="3">
         <v>0.15049999999999999</v>
@@ -3633,19 +3633,19 @@
         <v>0.56379999999999997</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB19" s="3">
         <v>0.34849999999999998</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AD19" s="3">
         <v>0.18179999999999999</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AF19" s="3">
         <v>0.1212</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="e">
         <v>#N/A</v>
@@ -3695,19 +3695,19 @@
         <v>220709</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="U20" s="3">
         <v>0.48670000000000002</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="W20" s="3">
         <v>0.14380000000000001</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Y20" s="3">
         <v>8.4099999999999994E-2</v>
@@ -3716,19 +3716,19 @@
         <v>0.71460000000000001</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AB20" s="3">
         <v>0.48780000000000001</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AD20" s="3">
         <v>0.23169999999999999</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AF20" s="3">
         <v>7.3200000000000001E-2</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="e">
         <v>#N/A</v>
@@ -3793,19 +3793,19 @@
         <v>224096</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="U21" s="3">
         <v>0.21229999999999999</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W21" s="3">
         <v>0.19750000000000001</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Y21" s="3">
         <v>0.1827</v>
@@ -3814,19 +3814,19 @@
         <v>0.59250000000000003</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AB21" s="3">
         <v>0.32890000000000003</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD21" s="3">
         <v>0.25</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AF21" s="3">
         <v>0.15790000000000001</v>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
@@ -3891,19 +3891,19 @@
         <v>304272</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="U22" s="3">
         <v>0.19009999999999999</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="W22" s="3">
         <v>0.1023</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y22" s="3">
         <v>0.1023</v>
@@ -3912,19 +3912,19 @@
         <v>0.3947</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AB22" s="3">
         <v>0.21740000000000001</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AD22" s="3">
         <v>0.1087</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AF22" s="3">
         <v>8.6999999999999994E-2</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="e">
         <v>#N/A</v>
@@ -3974,19 +3974,19 @@
         <v>298098</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="U23" s="3">
         <v>0.49480000000000002</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W23" s="3">
         <v>0.15809999999999999</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Y23" s="3">
         <v>6.1899999999999997E-2</v>
@@ -3995,19 +3995,19 @@
         <v>0.71479999999999999</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AB23" s="3">
         <v>0.5</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD23" s="3">
         <v>0.26190000000000002</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AF23" s="3">
         <v>2.3800000000000002E-2</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="e">
         <v>#N/A</v>
@@ -4072,19 +4072,19 @@
         <v>396929</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="U24" s="3">
         <v>0.48580000000000001</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="W24" s="3">
         <v>0.16309999999999999</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Y24" s="3">
         <v>0.1135</v>
@@ -4093,19 +4093,19 @@
         <v>0.76240000000000008</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB24" s="3">
         <v>0.62790000000000001</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AD24" s="3">
         <v>0.1628</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AF24" s="3">
         <v>4.65E-2</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="e">
         <v>#N/A</v>
@@ -4155,19 +4155,19 @@
         <v>373536</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="U25" s="3">
         <v>0.37790000000000001</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="W25" s="3">
         <v>0.29360000000000003</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Y25" s="3">
         <v>5.5199999999999999E-2</v>
@@ -4176,19 +4176,19 @@
         <v>0.72670000000000001</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AB25" s="3">
         <v>0.44829999999999998</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AD25" s="3">
         <v>0.29310000000000003</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AF25" s="3">
         <v>6.9000000000000006E-2</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="e">
         <v>#N/A</v>
@@ -4321,19 +4321,19 @@
         <v>306869</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="U27" s="3">
         <v>0.48120000000000002</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="W27" s="3">
         <v>0.218</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y27" s="3">
         <v>4.8899999999999999E-2</v>
@@ -4342,19 +4342,19 @@
         <v>0.74809999999999999</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB27" s="3">
         <v>0.42549999999999999</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AD27" s="3">
         <v>0.25530000000000003</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AF27" s="3">
         <v>6.3799999999999996E-2</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="e">
         <v>#N/A</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="e">
         <v>#N/A</v>
@@ -4487,19 +4487,19 @@
         <v>312053</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="U29" s="3">
         <v>0.2576</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W29" s="3">
         <v>0.19700000000000001</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Y29" s="3">
         <v>0.18940000000000001</v>
@@ -4508,19 +4508,19 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AB29" s="3">
         <v>0.2162</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD29" s="3">
         <v>0.18920000000000001</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF29" s="3">
         <v>0.2432</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3" t="e">
         <v>#N/A</v>
@@ -4585,19 +4585,19 @@
         <v>302358</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="U30" s="3">
         <v>0.2319</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="W30" s="3">
         <v>0.1993</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Y30" s="3">
         <v>0.1123</v>
@@ -4606,19 +4606,19 @@
         <v>0.54349999999999998</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB30" s="3">
         <v>0.26529999999999998</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AD30" s="3">
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AF30" s="3">
         <v>0.12239999999999999</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="e">
         <v>#N/A</v>
@@ -4668,19 +4668,19 @@
         <v>129408</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="U31" s="3">
         <v>0.20849999999999999</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="W31" s="3">
         <v>0.1678</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Y31" s="3">
         <v>0.1023</v>
@@ -4689,19 +4689,19 @@
         <v>0.47859999999999997</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AB31" s="3">
         <v>0.184</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AD31" s="3">
         <v>0.15090000000000001</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AF31" s="3">
         <v>8.4900000000000003E-2</v>
@@ -4712,10 +4712,10 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -4751,19 +4751,19 @@
         <v>410719</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="U32" s="3">
         <v>0.2218</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="W32" s="3">
         <v>0.20230000000000001</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Y32" s="3">
         <v>0.15559999999999999</v>
@@ -4772,19 +4772,19 @@
         <v>0.57969999999999999</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AB32" s="3">
         <v>0.21879999999999999</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AD32" s="3">
         <v>0.28129999999999999</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AF32" s="3">
         <v>0.15629999999999999</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3" t="e">
         <v>#N/A</v>
@@ -4834,19 +4834,19 @@
         <v>361150</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="U33" s="3">
         <v>0.65510000000000002</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="W33" s="3">
         <v>0.16769999999999999</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Y33" s="3">
         <v>7.5899999999999995E-2</v>
@@ -4855,19 +4855,19 @@
         <v>0.89869999999999994</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AB33" s="3">
         <v>0.73170000000000002</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AD33" s="3">
         <v>0.14630000000000001</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AF33" s="3">
         <v>4.8800000000000003E-2</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B34" s="3" t="e">
         <v>#N/A</v>
@@ -4917,19 +4917,19 @@
         <v>494981</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="U34" s="3">
         <v>0.32669999999999999</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="W34" s="3">
         <v>0.12670000000000001</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Y34" s="3">
         <v>7.3300000000000004E-2</v>
@@ -4938,19 +4938,19 @@
         <v>0.52670000000000006</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AB34" s="3">
         <v>0.3478</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AD34" s="3">
         <v>0.30430000000000001</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AF34" s="3">
         <v>4.3499999999999997E-2</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B35" s="3" t="e">
         <v>#N/A</v>
@@ -5000,19 +5000,19 @@
         <v>763828</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="U35" s="3">
         <v>0.53849999999999998</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="W35" s="3">
         <v>0.28210000000000002</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Y35" s="3">
         <v>7.6899999999999996E-2</v>
@@ -5021,19 +5021,19 @@
         <v>0.89749999999999996</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AB35" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AD35" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AF35" s="3">
         <v>0</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B36" s="3" t="e">
         <v>#N/A</v>
@@ -5083,19 +5083,19 @@
         <v>413466</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="U36" s="3">
         <v>0.46989999999999998</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="W36" s="3">
         <v>0.1767</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Y36" s="3">
         <v>0.1084</v>
@@ -5104,19 +5104,19 @@
         <v>0.75499999999999989</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AB36" s="3">
         <v>0.48280000000000001</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AD36" s="3">
         <v>0.18970000000000001</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF36" s="3">
         <v>0.1552</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3" t="e">
         <v>#N/A</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B38" s="3" t="e">
         <v>#N/A</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B39" s="3" t="e">
         <v>#N/A</v>
@@ -5332,19 +5332,19 @@
         <v>224390</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="U39" s="3">
         <v>0.38779999999999998</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="W39" s="3">
         <v>0.1391</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Y39" s="3">
         <v>0.12239999999999999</v>
@@ -5353,19 +5353,19 @@
         <v>0.64929999999999988</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AB39" s="3">
         <v>0.40189999999999998</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AD39" s="3">
         <v>0.215</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AF39" s="3">
         <v>0.17760000000000001</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B40" s="3" t="e">
         <v>#N/A</v>
@@ -5415,19 +5415,19 @@
         <v>650278</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="U40" s="3">
         <v>0.31869999999999998</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="W40" s="3">
         <v>0.12089999999999999</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Y40" s="3">
         <v>0.12089999999999999</v>
@@ -5436,19 +5436,19 @@
         <v>0.5605</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AB40" s="3">
         <v>0.26319999999999999</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AD40" s="3">
         <v>0.1053</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AF40" s="3">
         <v>0.21049999999999999</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3" t="e">
         <v>#N/A</v>
@@ -5498,19 +5498,19 @@
         <v>799658</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="U41" s="3">
         <v>0.26850000000000002</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="W41" s="3">
         <v>0.1852</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Y41" s="3">
         <v>0.1759</v>
@@ -5519,19 +5519,19 @@
         <v>0.62959999999999994</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AB41" s="3">
         <v>0.4</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AD41" s="3">
         <v>0.2</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF41" s="3">
         <v>0</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
@@ -5581,19 +5581,19 @@
         <v>394407</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="U42" s="3">
         <v>0.4516</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="W42" s="3">
         <v>0.13439999999999999</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Y42" s="3">
         <v>0.1075</v>
@@ -5602,19 +5602,19 @@
         <v>0.69350000000000001</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AB42" s="3">
         <v>0.53849999999999998</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AD42" s="3">
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AF42" s="3">
         <v>7.6899999999999996E-2</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B43" s="3" t="e">
         <v>#N/A</v>
@@ -5679,19 +5679,19 @@
         <v>711764</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="U43" s="3">
         <v>0.6552</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="W43" s="3">
         <v>0.1149</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Y43" s="3">
         <v>8.0500000000000002E-2</v>
@@ -5700,19 +5700,19 @@
         <v>0.85060000000000002</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AB43" s="3">
         <v>0.78569999999999995</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AD43" s="3">
         <v>7.1400000000000005E-2</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AF43" s="3">
         <v>0</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B44" s="3" t="e">
         <v>#N/A</v>
@@ -5762,19 +5762,19 @@
         <v>472017</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="U44" s="3">
         <v>0.38840000000000002</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="W44" s="3">
         <v>0.19639999999999999</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Y44" s="3">
         <v>0.16520000000000001</v>
@@ -5783,19 +5783,19 @@
         <v>0.75</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AB44" s="3">
         <v>0.47220000000000001</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AD44" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF44" s="3">
         <v>2.7799999999999998E-2</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B45" s="3" t="e">
         <v>#N/A</v>
@@ -5845,19 +5845,19 @@
         <v>1433726</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="U45" s="3">
         <v>0.65</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="W45" s="3">
         <v>0.15</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Y45" s="3">
         <v>0.1</v>
@@ -5866,19 +5866,19 @@
         <v>0.9</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AB45" s="3">
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AF45" s="3">
         <v>0</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B46" s="3" t="e">
         <v>#N/A</v>
@@ -5928,19 +5928,19 @@
         <v>1395611</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="U46" s="3">
         <v>0.38</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W46" s="3">
         <v>0.3</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Y46" s="3">
         <v>0.14000000000000001</v>
@@ -5949,19 +5949,19 @@
         <v>0.82</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AB46" s="3">
         <v>0.625</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD46" s="3">
         <v>0.125</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF46" s="3">
         <v>0</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B47" s="3" t="e">
         <v>#N/A</v>
@@ -6011,19 +6011,19 @@
         <v>830648</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="U47" s="3">
         <v>0.57140000000000002</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="W47" s="3">
         <v>0.23810000000000001</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Y47" s="3">
         <v>3.5700000000000003E-2</v>
@@ -6032,19 +6032,19 @@
         <v>0.84519999999999995</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AB47" s="3">
         <v>0.57140000000000002</v>
       </c>
       <c r="AC47" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AD47" s="3">
         <v>0.28570000000000001</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AF47" s="3">
         <v>7.1400000000000005E-2</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="e">
         <v>#N/A</v>
@@ -6094,19 +6094,19 @@
         <v>689720</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="U48" s="3">
         <v>0.74419999999999997</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="W48" s="3">
         <v>0.1008</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Y48" s="3">
         <v>5.4300000000000001E-2</v>
@@ -6115,19 +6115,19 @@
         <v>0.89929999999999999</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AB48" s="3">
         <v>0.64290000000000003</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AD48" s="3">
         <v>0.21429999999999999</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AF48" s="3">
         <v>7.1400000000000005E-2</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C49" s="3">
         <v>5</v>
@@ -6177,19 +6177,19 @@
         <v>853588</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="U49" s="3">
         <v>0.30769999999999997</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="W49" s="3">
         <v>0.1231</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Y49" s="3">
         <v>0.1231</v>
@@ -6198,19 +6198,19 @@
         <v>0.55389999999999995</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AB49" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AD49" s="3">
         <v>0</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AF49" s="3">
         <v>0.16669999999999999</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="e">
         <v>#N/A</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3" t="e">
         <v>#N/A</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3" t="e">
         <v>#N/A</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3" t="e">
         <v>#N/A</v>
@@ -6509,19 +6509,19 @@
         <v>1487661</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="U53" s="3">
         <v>0.22220000000000001</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="W53" s="3">
         <v>0.22220000000000001</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y53" s="3">
         <v>0.1111</v>
@@ -6530,19 +6530,19 @@
         <v>0.55549999999999999</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AB53" s="3">
         <v>0.25</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AD53" s="3">
         <v>0.25</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AF53" s="3">
         <v>0.25</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B54" s="3" t="e">
         <v>#N/A</v>
@@ -6592,19 +6592,19 @@
         <v>1159157</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="U54" s="3">
         <v>0.23400000000000001</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="W54" s="3">
         <v>0.23400000000000001</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Y54" s="3">
         <v>0.17019999999999999</v>
@@ -6613,19 +6613,19 @@
         <v>0.63819999999999999</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AB54" s="3">
         <v>0.28570000000000001</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AD54" s="3">
         <v>0</v>
       </c>
       <c r="AE54" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AF54" s="3">
         <v>0.28570000000000001</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B55" s="3" t="e">
         <v>#N/A</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="e">
         <v>#N/A</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="e">
         <v>#N/A</v>
@@ -6841,19 +6841,19 @@
         <v>1025335</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="U57" s="3">
         <v>0.3019</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="W57" s="3">
         <v>0.18870000000000001</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Y57" s="3">
         <v>0.16980000000000001</v>
@@ -6862,19 +6862,19 @@
         <v>0.6604000000000001</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AB57" s="3">
         <v>0.41670000000000001</v>
       </c>
       <c r="AC57" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AD57" s="3">
         <v>0.25</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AF57" s="3">
         <v>0</v>
@@ -6885,10 +6885,10 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B59" s="3" t="e">
         <v>#N/A</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B60" s="3" t="e">
         <v>#N/A</v>
@@ -7134,10 +7134,10 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C61" s="3">
         <v>3</v>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C62" s="3">
         <v>3</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C63" s="3">
         <v>6</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3" t="e">
         <v>#N/A</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B65" s="3" t="e">
         <v>#N/A</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B66" s="3" t="e">
         <v>#N/A</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3" t="e">
         <v>#N/A</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B68" s="3" t="e">
         <v>#N/A</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B70" s="3" t="e">
         <v>#N/A</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="A71" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B71" s="3" t="e">
         <v>#N/A</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B72" s="3" t="e">
         <v>#N/A</v>
@@ -8130,7 +8130,7 @@
     </row>
     <row r="73" spans="1:33">
       <c r="A73" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B73" s="3" t="e">
         <v>#N/A</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="74" spans="1:33">
       <c r="A74" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B74" s="3" t="e">
         <v>#N/A</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B75" s="3" t="e">
         <v>#N/A</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="76" spans="1:33">
       <c r="A76" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="e">
         <v>#N/A</v>
@@ -8462,10 +8462,10 @@
     </row>
     <row r="77" spans="1:33">
       <c r="A77" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="78" spans="1:33">
       <c r="A78" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B78" s="3" t="e">
         <v>#N/A</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="79" spans="1:33">
       <c r="A79" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B79" s="3" t="e">
         <v>#N/A</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="80" spans="1:33">
       <c r="A80" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B80" s="3" t="e">
         <v>#N/A</v>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="81" spans="1:33">
       <c r="A81" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B81" s="3" t="e">
         <v>#N/A</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="82" spans="1:33">
       <c r="A82" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B82" s="3" t="e">
         <v>#N/A</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="83" spans="1:33">
       <c r="A83" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B83" s="3" t="e">
         <v>#N/A</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="84" spans="1:33">
       <c r="A84" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B84" s="3" t="e">
         <v>#N/A</v>
@@ -9141,10 +9141,10 @@
     </row>
     <row r="85" spans="1:33">
       <c r="A85" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C85" s="3">
         <v>2</v>
@@ -9224,10 +9224,10 @@
     </row>
     <row r="86" spans="1:33">
       <c r="A86" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C86" s="3">
         <v>4</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="87" spans="1:33">
       <c r="A87" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B87" s="3" t="e">
         <v>#N/A</v>
@@ -9420,7 +9420,7 @@
     </row>
     <row r="88" spans="1:33">
       <c r="A88" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B88" s="3" t="e">
         <v>#N/A</v>
@@ -9503,10 +9503,10 @@
     </row>
     <row r="89" spans="1:33">
       <c r="A89" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C89" s="3">
         <v>4</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="90" spans="1:33">
       <c r="A90" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B90" s="3" t="e">
         <v>#N/A</v>
@@ -9669,10 +9669,10 @@
     </row>
     <row r="91" spans="1:33">
       <c r="A91" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C91" s="3">
         <v>5</v>
@@ -9708,19 +9708,19 @@
         <v>907006</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="U91" s="3">
         <v>0.2</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="W91" s="3">
         <v>0.16</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Y91" s="3">
         <v>0.12</v>
@@ -9729,19 +9729,19 @@
         <v>0.48</v>
       </c>
       <c r="AA91" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AB91" s="3">
         <v>0.1111</v>
       </c>
       <c r="AC91" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
       <c r="AE91" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AF91" s="3">
         <v>0.1111</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="92" spans="1:33">
       <c r="A92" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B92" s="3" t="e">
         <v>#N/A</v>
@@ -9791,19 +9791,19 @@
         <v>1097462</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="U92" s="3">
         <v>0.51429999999999998</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="W92" s="3">
         <v>0.2286</v>
       </c>
       <c r="X92" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Y92" s="3">
         <v>8.5699999999999998E-2</v>
@@ -9812,19 +9812,19 @@
         <v>0.8286</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB92" s="3">
         <v>0.4</v>
       </c>
       <c r="AC92" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AD92" s="3">
         <v>0.6</v>
       </c>
       <c r="AE92" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AF92" s="3">
         <v>0</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="93" spans="1:33">
       <c r="A93" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B93" s="3" t="e">
         <v>#N/A</v>
@@ -9874,19 +9874,19 @@
         <v>622106</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="U93" s="3">
         <v>0.45900000000000002</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="W93" s="3">
         <v>0.14749999999999999</v>
       </c>
       <c r="X93" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Y93" s="3">
         <v>0.123</v>
@@ -9895,19 +9895,19 @@
         <v>0.72950000000000004</v>
       </c>
       <c r="AA93" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AB93" s="3">
         <v>0.3448</v>
       </c>
       <c r="AC93" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AD93" s="3">
         <v>0.2414</v>
       </c>
       <c r="AE93" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF93" s="3">
         <v>0.10340000000000001</v>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="94" spans="1:33">
       <c r="A94" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B94" s="3" t="e">
         <v>#N/A</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="95" spans="1:33">
       <c r="A95" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B95" s="3" t="e">
         <v>#N/A</v>
@@ -10099,10 +10099,10 @@
     </row>
     <row r="96" spans="1:33">
       <c r="A96" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
@@ -10153,19 +10153,19 @@
         <v>1231226</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="U96" s="3">
         <v>0.41460000000000002</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="W96" s="3">
         <v>0.14630000000000001</v>
       </c>
       <c r="X96" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Y96" s="3">
         <v>0.14630000000000001</v>
@@ -10174,19 +10174,19 @@
         <v>0.70720000000000005</v>
       </c>
       <c r="AA96" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AB96" s="3">
         <v>0.57140000000000002</v>
       </c>
       <c r="AC96" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AD96" s="3">
         <v>0.1429</v>
       </c>
       <c r="AE96" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF96" s="3">
         <v>0.1429</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="97" spans="1:33">
       <c r="A97" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B97" s="3" t="e">
         <v>#N/A</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="98" spans="1:33">
       <c r="A98" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B98" s="3" t="e">
         <v>#N/A</v>
@@ -10363,10 +10363,10 @@
     </row>
     <row r="99" spans="1:33">
       <c r="A99" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C99" s="3">
         <v>5</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="100" spans="1:33">
       <c r="A100" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B100" s="3" t="e">
         <v>#N/A</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="101" spans="1:33">
       <c r="A101" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B101" s="3" t="e">
         <v>#N/A</v>
@@ -10568,19 +10568,19 @@
         <v>1083914</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="U101" s="3">
         <v>0.377</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W101" s="3">
         <v>0.29509999999999997</v>
       </c>
       <c r="X101" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Y101" s="3">
         <v>6.5600000000000006E-2</v>
@@ -10589,19 +10589,19 @@
         <v>0.73769999999999991</v>
       </c>
       <c r="AA101" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AB101" s="3">
         <v>0.2727</v>
       </c>
       <c r="AC101" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD101" s="3">
         <v>0.18179999999999999</v>
       </c>
       <c r="AE101" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AF101" s="3">
         <v>9.0899999999999995E-2</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="102" spans="1:33">
       <c r="A102" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B102" s="3" t="e">
         <v>#N/A</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="103" spans="1:33">
       <c r="A103" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B103" s="3" t="e">
         <v>#N/A</v>
@@ -10793,10 +10793,10 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C104" s="3">
         <v>4</v>
@@ -10891,10 +10891,10 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C105" s="3">
         <v>2</v>
@@ -10974,10 +10974,10 @@
     </row>
     <row r="106" spans="1:33">
       <c r="A106" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C106" s="3">
         <v>3</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="107" spans="1:33">
       <c r="A107" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B107" s="3" t="e">
         <v>#N/A</v>
@@ -11111,19 +11111,19 @@
         <v>1084323</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="U107" s="3">
         <v>0.25580000000000003</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="W107" s="3">
         <v>0.186</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Y107" s="3">
         <v>0.186</v>
@@ -11132,19 +11132,19 @@
         <v>0.62780000000000002</v>
       </c>
       <c r="AA107" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AB107" s="3">
         <v>0.28570000000000001</v>
       </c>
       <c r="AC107" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AD107" s="3">
         <v>0.42859999999999998</v>
       </c>
       <c r="AE107" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AF107" s="3">
         <v>0</v>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="108" spans="1:33">
       <c r="A108" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B108" s="3" t="e">
         <v>#N/A</v>
@@ -11238,10 +11238,10 @@
     </row>
     <row r="109" spans="1:33">
       <c r="A109" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C109" s="3">
         <v>9</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="110" spans="1:33">
       <c r="A110" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B110" s="3" t="e">
         <v>#N/A</v>
@@ -11404,10 +11404,10 @@
     </row>
     <row r="111" spans="1:33">
       <c r="A111" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C111" s="3">
         <v>7</v>
@@ -11487,10 +11487,10 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C112" s="3">
         <v>5</v>
@@ -11526,19 +11526,19 @@
         <v>1022164</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="U112" s="3">
         <v>0.38</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="W112" s="3">
         <v>0.26</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Y112" s="3">
         <v>0.08</v>
@@ -11547,19 +11547,19 @@
         <v>0.72</v>
       </c>
       <c r="AA112" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AB112" s="3">
         <v>1</v>
       </c>
       <c r="AC112" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AD112" s="3">
         <v>0</v>
       </c>
       <c r="AE112" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AF112" s="3">
         <v>0</v>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="113" spans="1:33">
       <c r="A113" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B113" s="3" t="e">
         <v>#N/A</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="114" spans="1:33">
       <c r="A114" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B114" s="3" t="e">
         <v>#N/A</v>
@@ -11692,19 +11692,19 @@
         <v>1277568</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="U114" s="3">
         <v>0.29409999999999997</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="W114" s="3">
         <v>0.23530000000000001</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Y114" s="3">
         <v>0.1176</v>
@@ -11713,19 +11713,19 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="AA114" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AB114" s="3">
         <v>0</v>
       </c>
       <c r="AC114" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AD114" s="3">
         <v>0.5</v>
       </c>
       <c r="AE114" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AF114" s="3">
         <v>0.5</v>
@@ -11736,10 +11736,10 @@
     </row>
     <row r="115" spans="1:33">
       <c r="A115" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C115" s="3">
         <v>6</v>
@@ -11819,7 +11819,7 @@
     </row>
     <row r="116" spans="1:33">
       <c r="A116" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B116" s="3" t="e">
         <v>#N/A</v>
@@ -11902,7 +11902,7 @@
     </row>
     <row r="117" spans="1:33">
       <c r="A117" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B117" s="3" t="e">
         <v>#N/A</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B118" s="3" t="e">
         <v>#N/A</v>
@@ -12068,7 +12068,7 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B119" s="3" t="e">
         <v>#N/A</v>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B120" s="3" t="e">
         <v>#N/A</v>
@@ -12234,10 +12234,10 @@
     </row>
     <row r="121" spans="1:33">
       <c r="A121" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C121" s="3">
         <v>3</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B122" s="3" t="e">
         <v>#N/A</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B123" s="3" t="e">
         <v>#N/A</v>
@@ -12498,7 +12498,7 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B124" s="3" t="e">
         <v>#N/A</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B125" s="3" t="e">
         <v>#N/A</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B126" s="3" t="e">
         <v>#N/A</v>
@@ -12703,19 +12703,19 @@
         <v>1090739</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="U126" s="3">
         <v>0.58140000000000003</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="W126" s="3">
         <v>0.27910000000000001</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Y126" s="3">
         <v>9.2999999999999999E-2</v>
@@ -12724,19 +12724,19 @@
         <v>0.95350000000000001</v>
       </c>
       <c r="AA126" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AB126" s="3">
         <v>0.66669999999999996</v>
       </c>
       <c r="AC126" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AD126" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AE126" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AF126" s="3">
         <v>0</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B127" s="3" t="e">
         <v>#N/A</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B128" s="3" t="e">
         <v>#N/A</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B129" s="3" t="e">
         <v>#N/A</v>
@@ -12996,10 +12996,10 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C130" s="3">
         <v>7</v>
@@ -13035,19 +13035,19 @@
         <v>1449764</v>
       </c>
       <c r="T130" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="U130" s="3">
         <v>0.46429999999999999</v>
       </c>
       <c r="V130" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="W130" s="3">
         <v>0.17860000000000001</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Y130" s="3">
         <v>7.1400000000000005E-2</v>
@@ -13056,19 +13056,19 @@
         <v>0.71430000000000005</v>
       </c>
       <c r="AA130" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AB130" s="3">
         <v>0.25</v>
       </c>
       <c r="AC130" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AD130" s="3">
         <v>0</v>
       </c>
       <c r="AE130" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF130" s="3">
         <v>0</v>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B131" s="3" t="e">
         <v>#N/A</v>
@@ -13118,19 +13118,19 @@
         <v>988566</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="U131" s="3">
         <v>0.72340000000000004</v>
       </c>
       <c r="V131" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="W131" s="3">
         <v>0.1489</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Y131" s="3">
         <v>4.2599999999999999E-2</v>
@@ -13139,19 +13139,19 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="AA131" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AB131" s="3">
         <v>0.73329999999999995</v>
       </c>
       <c r="AC131" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AD131" s="3">
         <v>0.1333</v>
       </c>
       <c r="AE131" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF131" s="3">
         <v>0</v>
@@ -13162,7 +13162,7 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B132" s="3" t="e">
         <v>#N/A</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B133" s="3" t="e">
         <v>#N/A</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B134" s="3" t="e">
         <v>#N/A</v>
@@ -13367,19 +13367,19 @@
         <v>1308774</v>
       </c>
       <c r="T134" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="U134" s="3">
         <v>0.66669999999999996</v>
       </c>
       <c r="V134" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="W134" s="3">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="X134" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Y134" s="3">
         <v>8.3299999999999999E-2</v>
@@ -13388,19 +13388,19 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="AA134" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB134" s="3">
         <v>1</v>
       </c>
       <c r="AC134" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AD134" s="3">
         <v>0</v>
       </c>
       <c r="AE134" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AF134" s="3">
         <v>0</v>
@@ -13411,7 +13411,7 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B135" s="3" t="e">
         <v>#N/A</v>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B136" s="3" t="e">
         <v>#N/A</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B137" s="3" t="e">
         <v>#N/A</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B138" s="3" t="e">
         <v>#N/A</v>
@@ -13743,7 +13743,7 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B139" s="3" t="e">
         <v>#N/A</v>
@@ -13826,7 +13826,7 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B140" s="3" t="e">
         <v>#N/A</v>
@@ -13909,7 +13909,7 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B141" s="3" t="e">
         <v>#N/A</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B142" s="3" t="e">
         <v>#N/A</v>
@@ -14090,7 +14090,7 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B143" s="3" t="e">
         <v>#N/A</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B144" s="3" t="e">
         <v>#N/A</v>
@@ -14256,7 +14256,7 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B145" s="3" t="e">
         <v>#N/A</v>
@@ -14339,7 +14339,7 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B146" s="3" t="e">
         <v>#N/A</v>
@@ -14378,19 +14378,19 @@
         <v>1035385</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="U146" s="3">
         <v>0.31819999999999998</v>
       </c>
       <c r="V146" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="W146" s="3">
         <v>0.18179999999999999</v>
       </c>
       <c r="X146" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Y146" s="3">
         <v>0.18179999999999999</v>
@@ -14399,19 +14399,19 @@
         <v>0.68179999999999996</v>
       </c>
       <c r="AA146" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AB146" s="3">
         <v>0.5</v>
       </c>
       <c r="AC146" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AD146" s="3">
         <v>0.5</v>
       </c>
       <c r="AE146" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AF146" s="3">
         <v>0</v>
@@ -14422,7 +14422,7 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B147" s="3" t="e">
         <v>#N/A</v>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B148" s="3" t="e">
         <v>#N/A</v>
@@ -14588,10 +14588,10 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C149" s="3">
         <v>5</v>
@@ -14671,7 +14671,7 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B150" s="3" t="e">
         <v>#N/A</v>
@@ -14754,10 +14754,10 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C151" s="3">
         <v>5</v>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B152" s="3" t="e">
         <v>#N/A</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
@@ -14959,19 +14959,19 @@
         <v>1177131</v>
       </c>
       <c r="T153" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="U153" s="3">
         <v>0.31430000000000002</v>
       </c>
       <c r="V153" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="W153" s="3">
         <v>0.2</v>
       </c>
       <c r="X153" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Y153" s="3">
         <v>0.1714</v>
@@ -14980,19 +14980,19 @@
         <v>0.68569999999999998</v>
       </c>
       <c r="AA153" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AB153" s="3">
         <v>0.25</v>
       </c>
       <c r="AC153" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AD153" s="3">
         <v>0.125</v>
       </c>
       <c r="AE153" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF153" s="3">
         <v>0.25</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B154" s="3" t="e">
         <v>#N/A</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B155" s="3" t="e">
         <v>#N/A</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B156" s="3" t="e">
         <v>#N/A</v>
@@ -15252,7 +15252,7 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B157" s="3" t="e">
         <v>#N/A</v>
@@ -15350,7 +15350,7 @@
     </row>
     <row r="158" spans="1:33">
       <c r="A158" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B158" s="3" t="e">
         <v>#N/A</v>
@@ -15448,7 +15448,7 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B159" s="3" t="e">
         <v>#N/A</v>
@@ -15531,7 +15531,7 @@
     </row>
     <row r="160" spans="1:33">
       <c r="A160" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B160" s="3" t="e">
         <v>#N/A</v>
@@ -15614,7 +15614,7 @@
     </row>
     <row r="161" spans="1:33">
       <c r="A161" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B161" s="3" t="e">
         <v>#N/A</v>
@@ -15697,7 +15697,7 @@
     </row>
     <row r="162" spans="1:33">
       <c r="A162" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B162" s="3" t="e">
         <v>#N/A</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="163" spans="1:33">
       <c r="A163" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B163" s="3" t="e">
         <v>#N/A</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="164" spans="1:33">
       <c r="A164" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B164" s="3" t="e">
         <v>#N/A</v>
@@ -15902,19 +15902,19 @@
         <v>793026</v>
       </c>
       <c r="T164" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="U164" s="3">
         <v>0.5</v>
       </c>
       <c r="V164" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="W164" s="3">
         <v>0.18090000000000001</v>
       </c>
       <c r="X164" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Y164" s="3">
         <v>7.4499999999999997E-2</v>
@@ -15923,19 +15923,19 @@
         <v>0.75540000000000007</v>
       </c>
       <c r="AA164" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AB164" s="3">
         <v>0.5</v>
       </c>
       <c r="AC164" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AD164" s="3">
         <v>0.2</v>
       </c>
       <c r="AE164" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AF164" s="3">
         <v>0</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="165" spans="1:33">
       <c r="A165" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B165" s="3" t="e">
         <v>#N/A</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="166" spans="1:33">
       <c r="A166" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B166" s="3" t="e">
         <v>#N/A</v>
@@ -16112,7 +16112,7 @@
     </row>
     <row r="167" spans="1:33">
       <c r="A167" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B167" s="3" t="e">
         <v>#N/A</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="168" spans="1:33">
       <c r="A168" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B168" s="3" t="e">
         <v>#N/A</v>
@@ -16278,7 +16278,7 @@
     </row>
     <row r="169" spans="1:33">
       <c r="A169" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B169" s="3" t="e">
         <v>#N/A</v>
@@ -16361,7 +16361,7 @@
     </row>
     <row r="170" spans="1:33">
       <c r="A170" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B170" s="3" t="e">
         <v>#N/A</v>
@@ -16444,7 +16444,7 @@
     </row>
     <row r="171" spans="1:33">
       <c r="A171" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B171" s="3" t="e">
         <v>#N/A</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="172" spans="1:33">
       <c r="A172" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B172" s="3" t="e">
         <v>#N/A</v>
@@ -16610,10 +16610,10 @@
     </row>
     <row r="173" spans="1:33">
       <c r="A173" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C173" s="3">
         <v>4</v>
@@ -16693,7 +16693,7 @@
     </row>
     <row r="174" spans="1:33">
       <c r="A174" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B174" s="3" t="e">
         <v>#N/A</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="175" spans="1:33">
       <c r="A175" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B175" s="3" t="e">
         <v>#N/A</v>
@@ -16889,7 +16889,7 @@
     </row>
     <row r="176" spans="1:33">
       <c r="A176" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B176" s="3" t="e">
         <v>#N/A</v>
@@ -16972,10 +16972,10 @@
     </row>
     <row r="177" spans="1:33">
       <c r="A177" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C177" s="3">
         <v>6</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="178" spans="1:33">
       <c r="A178" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B178" s="3" t="e">
         <v>#N/A</v>
@@ -17138,7 +17138,7 @@
     </row>
     <row r="179" spans="1:33">
       <c r="A179" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B179" s="3" t="e">
         <v>#N/A</v>
@@ -17221,10 +17221,10 @@
     </row>
     <row r="180" spans="1:33">
       <c r="A180" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
@@ -17304,7 +17304,7 @@
     </row>
     <row r="181" spans="1:33">
       <c r="A181" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B181" s="3" t="e">
         <v>#N/A</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="182" spans="1:33">
       <c r="A182" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B182" s="3" t="e">
         <v>#N/A</v>
@@ -17470,7 +17470,7 @@
     </row>
     <row r="183" spans="1:33">
       <c r="A183" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B183" s="3" t="e">
         <v>#N/A</v>
@@ -17553,10 +17553,10 @@
     </row>
     <row r="184" spans="1:33">
       <c r="A184" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C184" s="3">
         <v>2</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="185" spans="1:33">
       <c r="A185" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B185" s="3" t="e">
         <v>#N/A</v>
@@ -17749,7 +17749,7 @@
     </row>
     <row r="186" spans="1:33">
       <c r="A186" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B186" s="3" t="e">
         <v>#N/A</v>
@@ -17832,10 +17832,10 @@
     </row>
     <row r="187" spans="1:33">
       <c r="A187" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C187" s="3">
         <v>5</v>
@@ -17915,7 +17915,7 @@
     </row>
     <row r="188" spans="1:33">
       <c r="A188" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B188" s="3" t="e">
         <v>#N/A</v>
@@ -17998,10 +17998,10 @@
     </row>
     <row r="189" spans="1:33">
       <c r="A189" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C189" s="3">
         <v>2</v>
@@ -18096,7 +18096,7 @@
     </row>
     <row r="190" spans="1:33">
       <c r="A190" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B190" s="3" t="e">
         <v>#N/A</v>
@@ -18179,7 +18179,7 @@
     </row>
     <row r="191" spans="1:33">
       <c r="A191" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B191" s="3" t="e">
         <v>#N/A</v>
@@ -18218,19 +18218,19 @@
         <v>1129731</v>
       </c>
       <c r="T191" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="U191" s="3">
         <v>0.48280000000000001</v>
       </c>
       <c r="V191" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="W191" s="3">
         <v>0.27589999999999998</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Y191" s="3">
         <v>0.1724</v>
@@ -18239,19 +18239,19 @@
         <v>0.93109999999999993</v>
       </c>
       <c r="AA191" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AB191" s="3">
         <v>0.66669999999999996</v>
       </c>
       <c r="AC191" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AD191" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AE191" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF191" s="3">
         <v>0</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="192" spans="1:33">
       <c r="A192" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B192" s="3" t="e">
         <v>#N/A</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="193" spans="1:33">
       <c r="A193" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B193" s="3" t="e">
         <v>#N/A</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="194" spans="1:33">
       <c r="A194" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B194" s="3" t="e">
         <v>#N/A</v>
@@ -18526,7 +18526,7 @@
     </row>
     <row r="195" spans="1:33">
       <c r="A195" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B195" s="3" t="e">
         <v>#N/A</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="196" spans="1:33">
       <c r="A196" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B196" s="3" t="e">
         <v>#N/A</v>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="197" spans="1:33">
       <c r="A197" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B197" s="3" t="e">
         <v>#N/A</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="198" spans="1:33">
       <c r="A198" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B198" s="3" t="e">
         <v>#N/A</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="199" spans="1:33">
       <c r="A199" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B199" s="3" t="e">
         <v>#N/A</v>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="200" spans="1:33">
       <c r="A200" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B200" s="3" t="e">
         <v>#N/A</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="201" spans="1:33">
       <c r="A201" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B201" s="3" t="e">
         <v>#N/A</v>
@@ -19122,7 +19122,7 @@
     </row>
     <row r="202" spans="1:33">
       <c r="A202" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B202" s="3" t="e">
         <v>#N/A</v>
@@ -19205,7 +19205,7 @@
     </row>
     <row r="203" spans="1:33">
       <c r="A203" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B203" s="3" t="e">
         <v>#N/A</v>
@@ -19288,10 +19288,10 @@
     </row>
     <row r="204" spans="1:33">
       <c r="A204" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C204" s="3">
         <v>2</v>
@@ -19386,7 +19386,7 @@
     </row>
     <row r="205" spans="1:33">
       <c r="A205" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B205" s="3" t="e">
         <v>#N/A</v>
@@ -19469,10 +19469,10 @@
     </row>
     <row r="206" spans="1:33">
       <c r="A206" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C206" s="3">
         <v>4</v>
@@ -19523,19 +19523,19 @@
         <v>991098</v>
       </c>
       <c r="T206" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="U206" s="3">
         <v>0.4783</v>
       </c>
       <c r="V206" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="W206" s="3">
         <v>0.13039999999999999</v>
       </c>
       <c r="X206" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Y206" s="3">
         <v>8.6999999999999994E-2</v>
@@ -19544,19 +19544,19 @@
         <v>0.69569999999999999</v>
       </c>
       <c r="AA206" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AB206" s="3">
         <v>0.71430000000000005</v>
       </c>
       <c r="AC206" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AD206" s="3">
         <v>0.1429</v>
       </c>
       <c r="AE206" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AF206" s="3">
         <v>0</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="207" spans="1:33">
       <c r="A207" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B207" s="3" t="e">
         <v>#N/A</v>
@@ -19650,7 +19650,7 @@
     </row>
     <row r="208" spans="1:33">
       <c r="A208" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B208" s="3" t="e">
         <v>#N/A</v>
@@ -19733,7 +19733,7 @@
     </row>
     <row r="209" spans="1:33">
       <c r="A209" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B209" s="3" t="e">
         <v>#N/A</v>
@@ -19816,7 +19816,7 @@
     </row>
     <row r="210" spans="1:33">
       <c r="A210" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B210" s="3" t="e">
         <v>#N/A</v>
@@ -19899,10 +19899,10 @@
     </row>
     <row r="211" spans="1:33">
       <c r="A211" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C211" s="3">
         <v>2</v>
@@ -19997,10 +19997,10 @@
     </row>
     <row r="212" spans="1:33">
       <c r="A212" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C212" s="3">
         <v>3</v>
@@ -20080,7 +20080,7 @@
     </row>
     <row r="213" spans="1:33">
       <c r="A213" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B213" s="3" t="e">
         <v>#N/A</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="214" spans="1:33">
       <c r="A214" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B214" s="3" t="e">
         <v>#N/A</v>
@@ -20246,7 +20246,7 @@
     </row>
     <row r="215" spans="1:33">
       <c r="A215" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B215" s="3" t="e">
         <v>#N/A</v>
@@ -20329,10 +20329,10 @@
     </row>
     <row r="216" spans="1:33">
       <c r="A216" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C216" s="3">
         <v>2</v>
@@ -20412,10 +20412,10 @@
     </row>
     <row r="217" spans="1:33">
       <c r="A217" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C217" s="3">
         <v>6</v>
@@ -20495,7 +20495,7 @@
     </row>
     <row r="218" spans="1:33">
       <c r="A218" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B218" s="3" t="e">
         <v>#N/A</v>
@@ -20578,7 +20578,7 @@
     </row>
     <row r="219" spans="1:33">
       <c r="A219" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B219" s="3" t="e">
         <v>#N/A</v>
@@ -20661,7 +20661,7 @@
     </row>
     <row r="220" spans="1:33">
       <c r="A220" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B220" s="3" t="e">
         <v>#N/A</v>
@@ -20759,7 +20759,7 @@
     </row>
     <row r="221" spans="1:33">
       <c r="A221" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B221" s="3" t="e">
         <v>#N/A</v>
@@ -20842,7 +20842,7 @@
     </row>
     <row r="222" spans="1:33">
       <c r="A222" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B222" s="3" t="e">
         <v>#N/A</v>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="223" spans="1:33">
       <c r="A223" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B223" s="3" t="e">
         <v>#N/A</v>
@@ -21008,7 +21008,7 @@
     </row>
     <row r="224" spans="1:33">
       <c r="A224" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B224" s="3" t="e">
         <v>#N/A</v>
@@ -21091,7 +21091,7 @@
     </row>
     <row r="225" spans="1:33">
       <c r="A225" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B225" s="3" t="e">
         <v>#N/A</v>
@@ -21174,7 +21174,7 @@
     </row>
     <row r="226" spans="1:33">
       <c r="A226" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B226" s="3" t="e">
         <v>#N/A</v>
@@ -21257,7 +21257,7 @@
     </row>
     <row r="227" spans="1:33">
       <c r="A227" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B227" s="3" t="e">
         <v>#N/A</v>
@@ -21340,7 +21340,7 @@
     </row>
     <row r="228" spans="1:33">
       <c r="A228" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B228" s="3" t="e">
         <v>#N/A</v>
@@ -21423,10 +21423,10 @@
     </row>
     <row r="229" spans="1:33">
       <c r="A229" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C229" s="3">
         <v>6</v>
@@ -21506,10 +21506,10 @@
     </row>
     <row r="230" spans="1:33">
       <c r="A230" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C230" s="3">
         <v>2</v>
@@ -21604,7 +21604,7 @@
     </row>
     <row r="231" spans="1:33">
       <c r="A231" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B231" s="3" t="e">
         <v>#N/A</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="232" spans="1:33">
       <c r="A232" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B232" s="3" t="e">
         <v>#N/A</v>
@@ -21770,7 +21770,7 @@
     </row>
     <row r="233" spans="1:33">
       <c r="A233" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B233" s="3" t="e">
         <v>#N/A</v>
@@ -21868,10 +21868,10 @@
     </row>
     <row r="234" spans="1:33">
       <c r="A234" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C234" s="3">
         <v>2</v>
@@ -21951,7 +21951,7 @@
     </row>
     <row r="235" spans="1:33">
       <c r="A235" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B235" s="3" t="e">
         <v>#N/A</v>
@@ -22034,7 +22034,7 @@
     </row>
     <row r="236" spans="1:33">
       <c r="A236" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B236" s="3" t="e">
         <v>#N/A</v>
@@ -22117,7 +22117,7 @@
     </row>
     <row r="237" spans="1:33">
       <c r="A237" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B237" s="3" t="e">
         <v>#N/A</v>
@@ -22200,7 +22200,7 @@
     </row>
     <row r="238" spans="1:33">
       <c r="A238" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B238" s="3" t="e">
         <v>#N/A</v>
@@ -22298,7 +22298,7 @@
     </row>
     <row r="239" spans="1:33">
       <c r="A239" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B239" s="3" t="e">
         <v>#N/A</v>
@@ -22381,7 +22381,7 @@
     </row>
     <row r="240" spans="1:33">
       <c r="A240" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B240" s="3" t="e">
         <v>#N/A</v>
@@ -22479,7 +22479,7 @@
     </row>
     <row r="241" spans="1:33">
       <c r="A241" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B241" s="3" t="e">
         <v>#N/A</v>
@@ -22562,10 +22562,10 @@
     </row>
     <row r="242" spans="1:33">
       <c r="A242" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C242" s="3">
         <v>2</v>
@@ -22645,7 +22645,7 @@
     </row>
     <row r="243" spans="1:33">
       <c r="A243" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B243" s="3" t="e">
         <v>#N/A</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="244" spans="1:33">
       <c r="A244" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B244" s="3" t="e">
         <v>#N/A</v>
@@ -22826,7 +22826,7 @@
     </row>
     <row r="245" spans="1:33">
       <c r="A245" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B245" s="3" t="e">
         <v>#N/A</v>
@@ -22924,10 +22924,10 @@
     </row>
     <row r="246" spans="1:33">
       <c r="A246" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C246" s="3">
         <v>4</v>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="247" spans="1:33">
       <c r="A247" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B247" s="3" t="e">
         <v>#N/A</v>
@@ -23046,19 +23046,19 @@
         <v>1161952</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="U247" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="W247" s="3">
         <v>0.30769999999999997</v>
       </c>
       <c r="X247" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Y247" s="3">
         <v>0.1026</v>
@@ -23067,19 +23067,19 @@
         <v>0.74360000000000004</v>
       </c>
       <c r="AA247" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AB247" s="3">
         <v>0.33329999999999999</v>
       </c>
       <c r="AC247" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AD247" s="3">
         <v>0</v>
       </c>
       <c r="AE247" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AF247" s="3">
         <v>0.33329999999999999</v>
@@ -23090,10 +23090,10 @@
     </row>
     <row r="248" spans="1:33">
       <c r="A248" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C248" s="3">
         <v>6</v>
@@ -23173,7 +23173,7 @@
     </row>
     <row r="249" spans="1:33">
       <c r="A249" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B249" s="3" t="e">
         <v>#N/A</v>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="250" spans="1:33">
       <c r="A250" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B250" s="3" t="e">
         <v>#N/A</v>
@@ -23339,7 +23339,7 @@
     </row>
     <row r="251" spans="1:33">
       <c r="A251" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B251" s="3" t="e">
         <v>#N/A</v>
@@ -23422,7 +23422,7 @@
     </row>
     <row r="252" spans="1:33">
       <c r="A252" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B252" s="3" t="e">
         <v>#N/A</v>
@@ -23505,7 +23505,7 @@
     </row>
     <row r="253" spans="1:33">
       <c r="A253" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B253" s="3" t="e">
         <v>#N/A</v>
@@ -23588,7 +23588,7 @@
     </row>
     <row r="254" spans="1:33">
       <c r="A254" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B254" s="3" t="e">
         <v>#N/A</v>
@@ -23671,7 +23671,7 @@
     </row>
     <row r="255" spans="1:33">
       <c r="A255" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B255" s="3" t="e">
         <v>#N/A</v>
@@ -23769,10 +23769,10 @@
     </row>
     <row r="256" spans="1:33">
       <c r="A256" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C256" s="3">
         <v>3</v>
@@ -23852,7 +23852,7 @@
     </row>
     <row r="257" spans="1:33">
       <c r="A257" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B257" s="3" t="e">
         <v>#N/A</v>
@@ -23935,7 +23935,7 @@
     </row>
     <row r="258" spans="1:33">
       <c r="A258" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B258" s="3" t="e">
         <v>#N/A</v>
@@ -24033,7 +24033,7 @@
     </row>
     <row r="259" spans="1:33">
       <c r="A259" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B259" s="3" t="e">
         <v>#N/A</v>
@@ -24116,7 +24116,7 @@
     </row>
     <row r="260" spans="1:33">
       <c r="A260" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B260" s="3" t="e">
         <v>#N/A</v>
@@ -24199,7 +24199,7 @@
     </row>
     <row r="261" spans="1:33">
       <c r="A261" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B261" s="3" t="e">
         <v>#N/A</v>
@@ -24297,7 +24297,7 @@
     </row>
     <row r="262" spans="1:33">
       <c r="A262" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B262" s="3" t="e">
         <v>#N/A</v>
@@ -24380,7 +24380,7 @@
     </row>
     <row r="263" spans="1:33">
       <c r="A263" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B263" s="3" t="e">
         <v>#N/A</v>
@@ -24463,7 +24463,7 @@
     </row>
     <row r="264" spans="1:33">
       <c r="A264" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B264" s="3" t="e">
         <v>#N/A</v>
@@ -24546,7 +24546,7 @@
     </row>
     <row r="265" spans="1:33">
       <c r="A265" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B265" s="3" t="e">
         <v>#N/A</v>
@@ -24629,10 +24629,10 @@
     </row>
     <row r="266" spans="1:33">
       <c r="A266" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C266" s="3">
         <v>7</v>
@@ -24712,7 +24712,7 @@
     </row>
     <row r="267" spans="1:33">
       <c r="A267" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B267" s="3" t="e">
         <v>#N/A</v>
@@ -24810,7 +24810,7 @@
     </row>
     <row r="268" spans="1:33">
       <c r="A268" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B268" s="3" t="e">
         <v>#N/A</v>
@@ -24893,10 +24893,10 @@
     </row>
     <row r="269" spans="1:33">
       <c r="A269" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C269" s="3">
         <v>2</v>
@@ -24976,7 +24976,7 @@
     </row>
     <row r="270" spans="1:33">
       <c r="A270" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B270" s="3" t="e">
         <v>#N/A</v>
@@ -25059,7 +25059,7 @@
     </row>
     <row r="271" spans="1:33">
       <c r="A271" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B271" s="3" t="e">
         <v>#N/A</v>
@@ -25142,7 +25142,7 @@
     </row>
     <row r="272" spans="1:33">
       <c r="A272" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B272" s="3" t="e">
         <v>#N/A</v>
@@ -25225,7 +25225,7 @@
     </row>
     <row r="273" spans="1:33">
       <c r="A273" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B273" s="3" t="e">
         <v>#N/A</v>
@@ -25308,7 +25308,7 @@
     </row>
     <row r="274" spans="1:33">
       <c r="A274" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B274" s="3" t="e">
         <v>#N/A</v>
@@ -25391,7 +25391,7 @@
     </row>
     <row r="275" spans="1:33">
       <c r="A275" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B275" s="3" t="e">
         <v>#N/A</v>
@@ -25474,7 +25474,7 @@
     </row>
     <row r="276" spans="1:33">
       <c r="A276" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B276" s="3" t="e">
         <v>#N/A</v>
@@ -25557,10 +25557,10 @@
     </row>
     <row r="277" spans="1:33">
       <c r="A277" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C277" s="3">
         <v>3</v>
@@ -25640,7 +25640,7 @@
     </row>
     <row r="278" spans="1:33">
       <c r="A278" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B278" s="3" t="e">
         <v>#N/A</v>
@@ -25738,10 +25738,10 @@
     </row>
     <row r="279" spans="1:33">
       <c r="A279" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C279" s="3">
         <v>3</v>
@@ -25821,7 +25821,7 @@
     </row>
     <row r="280" spans="1:33">
       <c r="A280" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B280" s="3" t="e">
         <v>#N/A</v>
@@ -25904,10 +25904,10 @@
     </row>
     <row r="281" spans="1:33">
       <c r="A281" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C281" s="3">
         <v>2</v>
@@ -25987,7 +25987,7 @@
     </row>
     <row r="282" spans="1:33">
       <c r="A282" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B282" s="3" t="e">
         <v>#N/A</v>
@@ -26070,7 +26070,7 @@
     </row>
     <row r="283" spans="1:33">
       <c r="A283" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B283" s="3" t="e">
         <v>#N/A</v>
@@ -26153,7 +26153,7 @@
     </row>
     <row r="284" spans="1:33">
       <c r="A284" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B284" s="3" t="e">
         <v>#N/A</v>
@@ -26236,10 +26236,10 @@
     </row>
     <row r="285" spans="1:33">
       <c r="A285" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C285" s="3">
         <v>3</v>
@@ -26319,7 +26319,7 @@
     </row>
     <row r="286" spans="1:33">
       <c r="A286" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B286" s="3" t="e">
         <v>#N/A</v>
@@ -26402,10 +26402,10 @@
     </row>
     <row r="287" spans="1:33">
       <c r="A287" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C287" s="3">
         <v>5</v>
@@ -26500,7 +26500,7 @@
     </row>
     <row r="288" spans="1:33">
       <c r="A288" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B288" s="3" t="e">
         <v>#N/A</v>
@@ -26583,7 +26583,7 @@
     </row>
     <row r="289" spans="1:33">
       <c r="A289" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B289" s="3" t="e">
         <v>#N/A</v>
@@ -26666,7 +26666,7 @@
     </row>
     <row r="290" spans="1:33">
       <c r="A290" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B290" s="3" t="e">
         <v>#N/A</v>
@@ -26749,7 +26749,7 @@
     </row>
     <row r="291" spans="1:33">
       <c r="A291" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B291" s="3" t="e">
         <v>#N/A</v>
@@ -26832,10 +26832,10 @@
     </row>
     <row r="292" spans="1:33">
       <c r="A292" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C292" s="3">
         <v>3</v>
@@ -26915,7 +26915,7 @@
     </row>
     <row r="293" spans="1:33">
       <c r="A293" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B293" s="3" t="e">
         <v>#N/A</v>
@@ -26998,10 +26998,10 @@
     </row>
     <row r="294" spans="1:33">
       <c r="A294" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C294" s="3">
         <v>3</v>
@@ -27081,7 +27081,7 @@
     </row>
     <row r="295" spans="1:33">
       <c r="A295" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B295" s="3" t="e">
         <v>#N/A</v>
@@ -27164,10 +27164,10 @@
     </row>
     <row r="296" spans="1:33">
       <c r="A296" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C296" s="3">
         <v>6</v>
@@ -27247,10 +27247,10 @@
     </row>
     <row r="297" spans="1:33">
       <c r="A297" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C297" s="3">
         <v>4</v>
@@ -27330,7 +27330,7 @@
     </row>
     <row r="298" spans="1:33">
       <c r="A298" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B298" s="3" t="e">
         <v>#N/A</v>
@@ -27413,7 +27413,7 @@
     </row>
     <row r="299" spans="1:33">
       <c r="A299" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B299" s="3" t="e">
         <v>#N/A</v>
@@ -27511,7 +27511,7 @@
     </row>
     <row r="300" spans="1:33">
       <c r="A300" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B300" s="3" t="e">
         <v>#N/A</v>
@@ -27594,10 +27594,10 @@
     </row>
     <row r="301" spans="1:33">
       <c r="A301" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C301" s="3">
         <v>3</v>
@@ -27677,10 +27677,10 @@
     </row>
     <row r="302" spans="1:33">
       <c r="A302" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C302" s="3">
         <v>2</v>
@@ -27775,10 +27775,10 @@
     </row>
     <row r="303" spans="1:33">
       <c r="A303" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C303" s="3">
         <v>3</v>
@@ -27858,10 +27858,10 @@
     </row>
     <row r="304" spans="1:33">
       <c r="A304" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C304" s="3">
         <v>3</v>
@@ -27941,7 +27941,7 @@
     </row>
     <row r="305" spans="1:33">
       <c r="A305" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B305" s="3" t="e">
         <v>#N/A</v>
@@ -28024,7 +28024,7 @@
     </row>
     <row r="306" spans="1:33">
       <c r="A306" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B306" s="3" t="e">
         <v>#N/A</v>
@@ -28107,7 +28107,7 @@
     </row>
     <row r="307" spans="1:33">
       <c r="A307" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B307" s="3" t="e">
         <v>#N/A</v>
@@ -28190,10 +28190,10 @@
     </row>
     <row r="308" spans="1:33">
       <c r="A308" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
@@ -28273,10 +28273,10 @@
     </row>
     <row r="309" spans="1:33">
       <c r="A309" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C309" s="3">
         <v>3</v>
@@ -28356,10 +28356,10 @@
     </row>
     <row r="310" spans="1:33">
       <c r="A310" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C310" s="3">
         <v>2</v>
@@ -28439,7 +28439,7 @@
     </row>
     <row r="311" spans="1:33">
       <c r="A311" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B311" s="3" t="e">
         <v>#N/A</v>
@@ -28522,10 +28522,10 @@
     </row>
     <row r="312" spans="1:33">
       <c r="A312" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C312" s="3">
         <v>3</v>
@@ -28605,10 +28605,10 @@
     </row>
     <row r="313" spans="1:33">
       <c r="A313" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C313" s="3">
         <v>3</v>
@@ -28688,10 +28688,10 @@
     </row>
     <row r="314" spans="1:33">
       <c r="A314" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C314" s="3">
         <v>3</v>
@@ -28771,7 +28771,7 @@
     </row>
     <row r="315" spans="1:33">
       <c r="A315" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B315" s="3" t="e">
         <v>#N/A</v>
@@ -28854,10 +28854,10 @@
     </row>
     <row r="316" spans="1:33">
       <c r="A316" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C316" s="3">
         <v>3</v>
@@ -28937,7 +28937,7 @@
     </row>
     <row r="317" spans="1:33">
       <c r="A317" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B317" s="3" t="e">
         <v>#N/A</v>
@@ -29020,7 +29020,7 @@
     </row>
     <row r="318" spans="1:33">
       <c r="A318" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B318" s="3" t="e">
         <v>#N/A</v>
@@ -29103,10 +29103,10 @@
     </row>
     <row r="319" spans="1:33">
       <c r="A319" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C319" s="3">
         <v>4</v>
@@ -29186,10 +29186,10 @@
     </row>
     <row r="320" spans="1:33">
       <c r="A320" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C320" s="3">
         <v>3</v>
@@ -29269,10 +29269,10 @@
     </row>
     <row r="321" spans="1:33">
       <c r="A321" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C321" s="3">
         <v>4</v>
@@ -29352,7 +29352,7 @@
     </row>
     <row r="322" spans="1:33">
       <c r="A322" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B322" s="3" t="e">
         <v>#N/A</v>
@@ -29435,7 +29435,7 @@
     </row>
     <row r="323" spans="1:33">
       <c r="A323" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B323" s="3" t="e">
         <v>#N/A</v>
@@ -29518,7 +29518,7 @@
     </row>
     <row r="324" spans="1:33">
       <c r="A324" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B324" s="3" t="e">
         <v>#N/A</v>
@@ -29601,7 +29601,7 @@
     </row>
     <row r="325" spans="1:33">
       <c r="A325" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B325" s="3" t="e">
         <v>#N/A</v>
@@ -29684,10 +29684,10 @@
     </row>
     <row r="326" spans="1:33">
       <c r="A326" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C326" s="3">
         <v>3</v>
@@ -29782,10 +29782,10 @@
     </row>
     <row r="327" spans="1:33">
       <c r="A327" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C327" s="3">
         <v>4</v>
@@ -29865,10 +29865,10 @@
     </row>
     <row r="328" spans="1:33">
       <c r="A328" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C328" s="3">
         <v>6</v>
@@ -29948,7 +29948,7 @@
     </row>
     <row r="329" spans="1:33">
       <c r="A329" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B329" s="3" t="e">
         <v>#N/A</v>
@@ -30031,7 +30031,7 @@
     </row>
     <row r="330" spans="1:33">
       <c r="A330" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B330" s="3" t="e">
         <v>#N/A</v>
@@ -30114,7 +30114,7 @@
     </row>
     <row r="331" spans="1:33">
       <c r="A331" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B331" s="3" t="e">
         <v>#N/A</v>
@@ -30197,10 +30197,10 @@
     </row>
     <row r="332" spans="1:33">
       <c r="A332" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C332" s="3">
         <v>6</v>
@@ -30280,7 +30280,7 @@
     </row>
     <row r="333" spans="1:33">
       <c r="A333" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B333" s="3" t="e">
         <v>#N/A</v>
@@ -30363,7 +30363,7 @@
     </row>
     <row r="334" spans="1:33">
       <c r="A334" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B334" s="3" t="e">
         <v>#N/A</v>
@@ -30461,7 +30461,7 @@
     </row>
     <row r="335" spans="1:33">
       <c r="A335" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B335" s="3" t="e">
         <v>#N/A</v>
@@ -30544,10 +30544,10 @@
     </row>
     <row r="336" spans="1:33">
       <c r="A336" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C336" s="3">
         <v>2</v>
@@ -30627,10 +30627,10 @@
     </row>
     <row r="337" spans="1:33">
       <c r="A337" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C337" s="3">
         <v>5</v>
@@ -30710,10 +30710,10 @@
     </row>
     <row r="338" spans="1:33">
       <c r="A338" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C338" s="3">
         <v>3</v>
@@ -30793,7 +30793,7 @@
     </row>
     <row r="339" spans="1:33">
       <c r="A339" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B339" s="3" t="e">
         <v>#N/A</v>
@@ -30876,10 +30876,10 @@
     </row>
     <row r="340" spans="1:33">
       <c r="A340" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C340" s="3">
         <v>5</v>
@@ -30959,7 +30959,7 @@
     </row>
     <row r="341" spans="1:33">
       <c r="A341" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B341" s="3" t="e">
         <v>#N/A</v>
@@ -31042,7 +31042,7 @@
     </row>
     <row r="342" spans="1:33">
       <c r="A342" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B342" s="3" t="e">
         <v>#N/A</v>
@@ -31125,7 +31125,7 @@
     </row>
     <row r="343" spans="1:33">
       <c r="A343" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B343" s="3" t="e">
         <v>#N/A</v>
@@ -31223,7 +31223,7 @@
     </row>
     <row r="344" spans="1:33">
       <c r="A344" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B344" s="3" t="e">
         <v>#N/A</v>
@@ -31306,7 +31306,7 @@
     </row>
     <row r="345" spans="1:33">
       <c r="A345" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B345" s="3" t="e">
         <v>#N/A</v>
@@ -31389,10 +31389,10 @@
     </row>
     <row r="346" spans="1:33">
       <c r="A346" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C346" s="3">
         <v>3</v>
@@ -31472,10 +31472,10 @@
     </row>
     <row r="347" spans="1:33">
       <c r="A347" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C347" s="3">
         <v>3</v>
@@ -31555,7 +31555,7 @@
     </row>
     <row r="348" spans="1:33">
       <c r="A348" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B348" s="3" t="e">
         <v>#N/A</v>
